--- a/DOC/洗美/接口清单.xlsx
+++ b/DOC/洗美/接口清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
   <si>
     <t>作用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,10 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bdb.insurer_quote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rpb_card_stored</t>
   </si>
   <si>
@@ -373,38 +369,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rps_stored_consume_record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rps_times_consume_record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rps_card_times,rps_card_times_detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接车--获取客户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据车牌号查询，不存在则到保多邦获取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com_guest,rpb_guest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接车--获取车型，保险公司，会员等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接车--获取客户会员信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>com_join_member</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,10 +390,6 @@
   </si>
   <si>
     <t>rpb_package，rpb_package_item，rpb_package_part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rps_package,rps_item,rps_part</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -490,6 +458,45 @@
   <si>
     <t>2018.8.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接车--获取客户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_guest,rpb_guest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdb.insurer_quote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接车--根据车牌号获取车型，保险公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接车--根据客户ID获取客户会员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rps_package,rps_item,rps_part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rps_item,rps_item_workers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpb_part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卡ID保存到业务数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rps_stored_consume_record</t>
   </si>
 </sst>
 </file>
@@ -520,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +537,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,12 +565,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -856,8 +877,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -906,50 +927,50 @@
     </row>
     <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -957,10 +978,10 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -968,10 +989,10 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -982,7 +1003,7 @@
         <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -990,10 +1011,10 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1001,10 +1022,10 @@
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -1015,7 +1036,7 @@
         <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1026,7 +1047,7 @@
         <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -1037,7 +1058,7 @@
         <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -1045,10 +1066,10 @@
         <v>70</v>
       </c>
       <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
         <v>102</v>
-      </c>
-      <c r="I14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -1059,7 +1080,7 @@
         <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -1070,7 +1091,7 @@
         <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1083,24 +1104,24 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" t="s">
         <v>103</v>
-      </c>
-      <c r="I18" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1111,7 +1132,7 @@
         <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1122,7 +1143,7 @@
         <v>71</v>
       </c>
       <c r="I21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1133,7 +1154,7 @@
         <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1144,7 +1165,7 @@
         <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1155,7 +1176,7 @@
         <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1163,10 +1184,10 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1177,7 +1198,7 @@
         <v>73</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1185,21 +1206,21 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="G28" t="s">
-        <v>89</v>
+      <c r="G28" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -1207,10 +1228,10 @@
         <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1218,10 +1239,10 @@
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -1232,7 +1253,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1288,7 +1309,7 @@
         <v>81</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -1299,7 +1320,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -1310,7 +1331,7 @@
         <v>74</v>
       </c>
       <c r="I37" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1318,10 +1339,10 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -1332,7 +1353,7 @@
         <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -1340,10 +1361,10 @@
         <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -1351,10 +1372,10 @@
         <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -1365,7 +1386,7 @@
         <v>75</v>
       </c>
       <c r="I42" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -1376,7 +1397,7 @@
         <v>75</v>
       </c>
       <c r="I43" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -1387,7 +1408,7 @@
         <v>64</v>
       </c>
       <c r="I44" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -1398,7 +1419,7 @@
         <v>64</v>
       </c>
       <c r="I45" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -1409,7 +1430,7 @@
         <v>65</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -1420,7 +1441,7 @@
         <v>66</v>
       </c>
       <c r="I47" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -1431,10 +1452,10 @@
         <v>76</v>
       </c>
       <c r="I48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>48</v>
       </c>
@@ -1442,10 +1463,10 @@
         <v>77</v>
       </c>
       <c r="I49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>49</v>
       </c>
@@ -1453,102 +1474,161 @@
         <v>78</v>
       </c>
       <c r="I50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="G52" t="s">
-        <v>79</v>
-      </c>
-      <c r="I52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="G53" t="s">
-        <v>79</v>
-      </c>
-      <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54" t="s">
-        <v>80</v>
-      </c>
-      <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
-        <v>54</v>
-      </c>
-      <c r="G55" t="s">
-        <v>63</v>
-      </c>
-      <c r="I55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I59" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I60" t="s">
-        <v>111</v>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/洗美/接口清单.xlsx
+++ b/DOC/洗美/接口清单.xlsx
@@ -877,7 +877,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>

--- a/DOC/洗美/接口清单.xlsx
+++ b/DOC/洗美/接口清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,10 +386,6 @@
   </si>
   <si>
     <t>rpb_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rpb_package，rpb_package_item，rpb_package_part</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -497,6 +493,10 @@
   </si>
   <si>
     <t>rps_stored_consume_record</t>
+  </si>
+  <si>
+    <t>rpb_package，rpb_package_item，rpb_package_part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -877,8 +877,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -927,39 +927,39 @@
     </row>
     <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -970,7 +970,7 @@
         <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -981,7 +981,7 @@
         <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -989,10 +989,10 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1003,7 +1003,7 @@
         <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1011,10 +1011,10 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1022,10 +1022,10 @@
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -1036,7 +1036,7 @@
         <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1047,7 +1047,7 @@
         <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -1058,7 +1058,7 @@
         <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -1066,10 +1066,10 @@
         <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -1080,7 +1080,7 @@
         <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -1091,7 +1091,7 @@
         <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1104,24 +1104,24 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1132,7 +1132,7 @@
         <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1143,7 +1143,7 @@
         <v>71</v>
       </c>
       <c r="I21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1154,7 +1154,7 @@
         <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1165,7 +1165,7 @@
         <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1176,7 +1176,7 @@
         <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1184,10 +1184,10 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1198,7 +1198,7 @@
         <v>73</v>
       </c>
       <c r="I26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1206,10 +1206,10 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1217,10 +1217,10 @@
         <v>26</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -1228,10 +1228,10 @@
         <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1242,7 +1242,7 @@
         <v>88</v>
       </c>
       <c r="I30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -1253,7 +1253,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1309,7 +1309,7 @@
         <v>81</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -1320,7 +1320,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -1331,7 +1331,7 @@
         <v>74</v>
       </c>
       <c r="I37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1342,7 +1342,7 @@
         <v>88</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -1353,7 +1353,7 @@
         <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -1364,7 +1364,7 @@
         <v>87</v>
       </c>
       <c r="I40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -1375,7 +1375,7 @@
         <v>86</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -1386,7 +1386,7 @@
         <v>75</v>
       </c>
       <c r="I42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -1397,7 +1397,7 @@
         <v>75</v>
       </c>
       <c r="I43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -1408,7 +1408,7 @@
         <v>64</v>
       </c>
       <c r="I44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -1419,7 +1419,7 @@
         <v>64</v>
       </c>
       <c r="I45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -1430,7 +1430,7 @@
         <v>65</v>
       </c>
       <c r="I46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -1441,7 +1441,7 @@
         <v>66</v>
       </c>
       <c r="I47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -1452,7 +1452,7 @@
         <v>76</v>
       </c>
       <c r="I48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -1463,7 +1463,7 @@
         <v>77</v>
       </c>
       <c r="I49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -1474,7 +1474,7 @@
         <v>78</v>
       </c>
       <c r="I50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -1482,10 +1482,10 @@
         <v>50</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -1568,7 +1568,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -1583,7 +1583,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -1598,7 +1598,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -1613,7 +1613,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -1628,7 +1628,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/洗美/接口清单.xlsx
+++ b/DOC/洗美/接口清单.xlsx
@@ -877,8 +877,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
